--- a/DaZhongManagementSystem/ReportTemplate/PsychologicalEvaluation.xlsx
+++ b/DaZhongManagementSystem/ReportTemplate/PsychologicalEvaluation.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hot.wang\source\repos\DaZhongTransportationWeChatPush--\DaZhongManagementSystem\ReportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8639B1-52AF-4518-9B02-7A3CA5C691A1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7521BDA-3902-428F-9FF0-4D0F01BCF1AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>人员姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,6 +94,14 @@
     <t>&amp;=[tb].ColorBlock</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>&amp;=[tb].Result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +113,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -133,6 +144,14 @@
       <color theme="3" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -182,7 +201,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -193,8 +212,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -224,14 +252,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -568,23 +596,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="29" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="7" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -603,33 +633,40 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{2CF46366-74DC-47B9-9A73-E09BC08F3288}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND(E1="red")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(E1="yellow")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND(E1="red")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>AND(E1="green")</formula>
